--- a/JOSPHAT KURIA.xlsx
+++ b/JOSPHAT KURIA.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="299">
   <si>
     <t xml:space="preserve">NO. </t>
   </si>
@@ -33014,7 +33014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -34895,8 +34895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34904,7 +34904,7 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
@@ -34913,7 +34913,7 @@
       <c r="G1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
@@ -34921,7 +34921,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
         <v>296</v>
       </c>
@@ -34929,7 +34929,7 @@
       <c r="F3" s="29"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -34961,7 +34961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -34981,16 +34981,18 @@
         <v>4000</v>
       </c>
       <c r="G5" s="2">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="2">
         <f>F5-G5</f>
-        <v>1700</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>2000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>300</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -35017,7 +35019,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -35044,7 +35046,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -35075,7 +35077,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -35101,7 +35103,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -35128,7 +35130,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -35155,7 +35157,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -35182,7 +35184,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -35201,11 +35203,8 @@
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -35224,15 +35223,18 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <f>1400+500</f>
+        <v>1900</v>
+      </c>
       <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>600</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -35261,7 +35263,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -35400,17 +35402,15 @@
         <v>17255</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>2500</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>19755</v>
+        <v>17255</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>19755</v>
+        <v>17255</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -35434,12 +35434,16 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>2500</v>
+      </c>
       <c r="H22" s="2">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>300</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -35457,23 +35461,23 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>29500</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>67255</v>
+        <v>64755</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="2"/>
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
-        <v>60455</v>
+        <v>53855</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="2"/>
@@ -35540,7 +35544,7 @@
       </c>
       <c r="C27" s="13">
         <f>E23</f>
-        <v>32000</v>
+        <v>29500</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -35549,7 +35553,7 @@
       </c>
       <c r="G27" s="13">
         <f>G23</f>
-        <v>6800</v>
+        <v>10900</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
@@ -35611,7 +35615,7 @@
       </c>
       <c r="C31" s="2">
         <f>I23</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -35620,7 +35624,7 @@
       </c>
       <c r="G31" s="2">
         <f>C31</f>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -35634,7 +35638,7 @@
       </c>
       <c r="D32" s="13">
         <f>C32*C27</f>
-        <v>1600</v>
+        <v>1475</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
@@ -35645,7 +35649,7 @@
       </c>
       <c r="H32" s="13">
         <f>D32</f>
-        <v>1600</v>
+        <v>1475</v>
       </c>
       <c r="I32" s="12"/>
     </row>
@@ -35689,7 +35693,7 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
-        <v>2520</v>
+        <v>3840</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="16" t="s">
@@ -35697,7 +35701,7 @@
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2">
-        <v>2520</v>
+        <v>3840</v>
       </c>
       <c r="I35" s="12"/>
     </row>
@@ -35791,30 +35795,30 @@
       </c>
       <c r="C45" s="24">
         <f>C27+C28+C29+C30+C31-D32</f>
-        <v>66720.5</v>
+        <v>64945.5</v>
       </c>
       <c r="D45" s="26">
         <f>SUM(D34:D44)</f>
-        <v>2520</v>
+        <v>3840</v>
       </c>
       <c r="E45" s="24">
         <f>C45-D45</f>
-        <v>64200.5</v>
+        <v>61105.5</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G45" s="24">
         <f>G27+G28+G29+G30+G31-H32</f>
-        <v>8265.5</v>
+        <v>13090.5</v>
       </c>
       <c r="H45" s="24">
         <f>SUM(H34:H44)</f>
-        <v>2520</v>
+        <v>3840</v>
       </c>
       <c r="I45" s="24">
         <f>G45-H45</f>
-        <v>5745.5</v>
+        <v>9250.5</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
